--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  VERDURAS   ABRIL   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  VERDURAS   ABRIL   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="11730" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="     M A R Z O     2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>APERTURA  EL 5 DE MARZO DEL 2023</t>
-  </si>
-  <si>
-    <t>FONDO CAJA</t>
   </si>
   <si>
     <t xml:space="preserve">Diferencias </t>
@@ -287,6 +284,15 @@
   <si>
     <t xml:space="preserve">SE COMPENSA EN LOS DIAS  13--Y  15----MARZO </t>
   </si>
+  <si>
+    <t xml:space="preserve">FONDO DE CAJA </t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +306,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +639,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +705,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="67">
     <border>
@@ -1527,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1853,125 +1881,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2002,18 +1911,6 @@
     <xf numFmtId="166" fontId="39" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="39" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2024,6 +1921,149 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="43" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2033,8 +2073,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFCCFFCC"/>
@@ -3172,8 +3212,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,55 +3239,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="196"/>
-      <c r="C1" s="198" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="217" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="218"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="177"/>
       <c r="M2" s="7"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="201"/>
+      <c r="B3" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="208"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="202"/>
+      <c r="I3" s="209"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="203" t="s">
-        <v>23</v>
+      <c r="R3" s="193" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3259,14 +3299,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="H4" s="207" t="s">
+      <c r="F4" s="196"/>
+      <c r="H4" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="208"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -3276,11 +3316,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="204"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="194"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -3594,17 +3634,12 @@
       <c r="I11" s="28">
         <v>10</v>
       </c>
-      <c r="J11" s="42">
-        <v>44996</v>
-      </c>
-      <c r="K11" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="171">
-        <v>1000</v>
-      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="30">
-        <v>3227</v>
+        <f>3227+1000</f>
+        <v>4227</v>
       </c>
       <c r="N11" s="31">
         <v>0</v>
@@ -3669,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3710,15 +3745,15 @@
         <f t="shared" si="1"/>
         <v>6498.58</v>
       </c>
-      <c r="Q13" s="212">
+      <c r="Q13" s="171">
         <f t="shared" si="2"/>
         <v>-2705.42</v>
       </c>
       <c r="R13" s="48">
         <v>0</v>
       </c>
-      <c r="S13" s="216" t="s">
-        <v>25</v>
+      <c r="S13" s="175" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3759,15 +3794,15 @@
         <f t="shared" si="1"/>
         <v>6109.12</v>
       </c>
-      <c r="Q14" s="213">
+      <c r="Q14" s="172">
         <f t="shared" si="2"/>
         <v>841.11999999999989</v>
       </c>
       <c r="R14" s="48">
         <v>0</v>
       </c>
-      <c r="S14" s="216" t="s">
-        <v>25</v>
+      <c r="S14" s="175" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3808,15 +3843,15 @@
         <f t="shared" si="1"/>
         <v>6731.39</v>
       </c>
-      <c r="Q15" s="212">
+      <c r="Q15" s="171">
         <f t="shared" si="2"/>
         <v>-1539.6099999999997</v>
       </c>
       <c r="R15" s="48">
         <v>0</v>
       </c>
-      <c r="S15" s="216" t="s">
-        <v>25</v>
+      <c r="S15" s="175" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3857,15 +3892,15 @@
         <f t="shared" si="1"/>
         <v>6470.83</v>
       </c>
-      <c r="Q16" s="213">
+      <c r="Q16" s="172">
         <f t="shared" si="2"/>
         <v>2068.83</v>
       </c>
       <c r="R16" s="48">
         <v>0</v>
       </c>
-      <c r="S16" s="216" t="s">
-        <v>25</v>
+      <c r="S16" s="175" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3907,7 +3942,7 @@
         <f t="shared" si="1"/>
         <v>5956</v>
       </c>
-      <c r="Q17" s="213">
+      <c r="Q17" s="172">
         <f t="shared" si="2"/>
         <v>1335</v>
       </c>
@@ -3915,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3964,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4013,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4062,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4111,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4138,8 +4173,8 @@
       <c r="I22" s="28">
         <v>236</v>
       </c>
-      <c r="J22" s="214" t="s">
-        <v>28</v>
+      <c r="J22" s="173" t="s">
+        <v>27</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="57"/>
@@ -4161,8 +4196,8 @@
       <c r="R22" s="48">
         <v>0</v>
       </c>
-      <c r="S22" s="215" t="s">
-        <v>27</v>
+      <c r="S22" s="174" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4203,7 +4238,7 @@
         <f t="shared" si="1"/>
         <v>7053</v>
       </c>
-      <c r="Q23" s="213">
+      <c r="Q23" s="172">
         <f t="shared" si="2"/>
         <v>381</v>
       </c>
@@ -4211,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4252,7 +4287,7 @@
         <f t="shared" si="1"/>
         <v>7442</v>
       </c>
-      <c r="Q24" s="212">
+      <c r="Q24" s="171">
         <f t="shared" si="2"/>
         <v>-381</v>
       </c>
@@ -4260,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4309,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4321,7 +4356,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="24">
         <v>45011</v>
@@ -4358,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4407,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4456,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4504,8 +4539,8 @@
       <c r="R29" s="48">
         <v>0</v>
       </c>
-      <c r="S29" s="215" t="s">
-        <v>27</v>
+      <c r="S29" s="174" t="s">
+        <v>26</v>
       </c>
       <c r="T29" s="9"/>
     </row>
@@ -4555,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4684,7 +4719,7 @@
         <v>3427.18</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
@@ -4697,7 +4732,7 @@
         <v>45012</v>
       </c>
       <c r="K34" s="81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" s="82">
         <v>366.28</v>
@@ -4731,7 +4766,7 @@
         <v>4844.88</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -4743,8 +4778,8 @@
       <c r="J35" s="72">
         <v>45014</v>
       </c>
-      <c r="K35" s="76" t="s">
-        <v>37</v>
+      <c r="K35" s="236" t="s">
+        <v>36</v>
       </c>
       <c r="L35" s="80">
         <v>2255</v>
@@ -4778,7 +4813,7 @@
         <v>808</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
@@ -4819,7 +4854,7 @@
         <v>520</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
@@ -4859,7 +4894,7 @@
         <v>2605.79</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
@@ -4899,7 +4934,7 @@
         <v>3003.1</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
@@ -5115,17 +5150,17 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="185">
+      <c r="M45" s="210">
         <f>SUM(M5:M39)</f>
-        <v>63841</v>
-      </c>
-      <c r="N45" s="187">
+        <v>64841</v>
+      </c>
+      <c r="N45" s="212">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
       <c r="P45" s="100">
         <f t="shared" si="1"/>
-        <v>63841</v>
+        <v>64841</v>
       </c>
       <c r="Q45" s="101">
         <f>SUM(Q5:Q39)</f>
@@ -5151,8 +5186,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="186"/>
-      <c r="N46" s="188"/>
+      <c r="M46" s="211"/>
+      <c r="N46" s="213"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -5226,7 +5261,7 @@
       </c>
       <c r="L49" s="130">
         <f>SUM(L5:L48)</f>
-        <v>3621.2799999999997</v>
+        <v>2621.2799999999997</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -5244,32 +5279,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="189" t="s">
+      <c r="H51" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="190"/>
+      <c r="I51" s="215"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="191">
+      <c r="K51" s="216">
         <f>I49+L49</f>
-        <v>6219.28</v>
-      </c>
-      <c r="L51" s="192"/>
-      <c r="M51" s="193">
+        <v>5219.28</v>
+      </c>
+      <c r="L51" s="217"/>
+      <c r="M51" s="218">
         <f>N45+M45</f>
-        <v>63841</v>
-      </c>
-      <c r="N51" s="194"/>
+        <v>64841</v>
+      </c>
+      <c r="N51" s="219"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="195"/>
+      <c r="E52" s="202"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>45856.369999999995</v>
+        <v>46856.369999999995</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -5277,20 +5312,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="220"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="174" t="s">
+      <c r="I53" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="175"/>
-      <c r="K53" s="176">
+      <c r="J53" s="222"/>
+      <c r="K53" s="223">
         <f>F55+F56+F57</f>
-        <v>45856.369999999995</v>
-      </c>
-      <c r="L53" s="177"/>
+        <v>46856.369999999995</v>
+      </c>
+      <c r="L53" s="224"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -5314,18 +5349,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>45856.369999999995</v>
+        <v>46856.369999999995</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="178">
+      <c r="K55" s="225">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="179"/>
+      <c r="L55" s="226"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -5338,22 +5373,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="180" t="s">
+      <c r="D57" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="181"/>
+      <c r="E57" s="228"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="182" t="s">
+      <c r="I57" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="183"/>
-      <c r="K57" s="184">
+      <c r="J57" s="230"/>
+      <c r="K57" s="231">
         <f>K53+K55</f>
-        <v>45856.369999999995</v>
-      </c>
-      <c r="L57" s="184"/>
+        <v>46856.369999999995</v>
+      </c>
+      <c r="L57" s="231"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -5478,17 +5513,10 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
@@ -5496,10 +5524,17 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5515,8 +5550,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,55 +5577,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="196"/>
-      <c r="C1" s="198" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-    </row>
-    <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="205" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+    </row>
+    <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="204"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="217" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="218"/>
-      <c r="M2" s="7"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="243" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="177"/>
+      <c r="M2" s="242">
+        <v>45019</v>
+      </c>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="201"/>
+      <c r="B3" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="208"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="202"/>
+      <c r="I3" s="209"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="203" t="s">
-        <v>23</v>
+      <c r="R3" s="193" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5602,14 +5639,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="H4" s="207" t="s">
+      <c r="F4" s="196"/>
+      <c r="H4" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="208"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -5619,49 +5656,52 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="204"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="194"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="21">
-        <v>44990</v>
+        <v>45017</v>
       </c>
       <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23"/>
+        <v>4271</v>
+      </c>
+      <c r="D5" s="240" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="24">
-        <v>44990</v>
+        <v>45017</v>
       </c>
       <c r="F5" s="25">
-        <v>0</v>
+        <v>7711</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="27">
-        <v>44990</v>
+        <v>45017</v>
       </c>
       <c r="I5" s="28">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="29"/>
       <c r="L5" s="9"/>
       <c r="M5" s="30">
-        <v>0</v>
+        <f>522+657</f>
+        <v>1179</v>
       </c>
       <c r="N5" s="31">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="33">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>7711</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" ref="Q5:Q44" si="0">P5-F5</f>
@@ -5670,26 +5710,30 @@
       <c r="R5" s="48">
         <v>0</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
-        <v>44991</v>
+        <v>45018</v>
       </c>
       <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36"/>
+        <v>633</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="24">
-        <v>44991</v>
+        <v>45018</v>
       </c>
       <c r="F6" s="25">
-        <v>0</v>
+        <v>3478</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="27">
-        <v>44991</v>
+        <v>45018</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
@@ -5698,15 +5742,17 @@
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="30">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="N6" s="31">
-        <v>0</v>
-      </c>
-      <c r="O6" s="32"/>
+        <v>1962</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="P6" s="33">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>3478</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="0"/>
@@ -5715,89 +5761,104 @@
       <c r="R6" s="48">
         <v>0</v>
       </c>
-      <c r="S6" s="35"/>
+      <c r="S6" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
-        <v>44992</v>
+        <v>45019</v>
       </c>
       <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40"/>
+        <v>2397</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="24">
-        <v>44992</v>
+        <v>45019</v>
       </c>
       <c r="F7" s="25">
-        <v>0</v>
+        <v>7117</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="27">
-        <v>44992</v>
+        <v>45019</v>
       </c>
       <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="39"/>
+        <v>102</v>
+      </c>
+      <c r="J7" s="37">
+        <v>45019</v>
+      </c>
+      <c r="K7" s="238" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="239">
+        <v>2365</v>
+      </c>
       <c r="M7" s="30">
-        <v>0</v>
+        <f>209+2365</f>
+        <v>2574</v>
       </c>
       <c r="N7" s="31">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="33">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
+        <v>9482</v>
+      </c>
+      <c r="Q7" s="237">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="R7" s="48">
         <v>0</v>
       </c>
-      <c r="S7" s="35"/>
+      <c r="S7" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21">
-        <v>44993</v>
+        <v>45020</v>
       </c>
       <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="40"/>
+        <v>3520</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="24">
-        <v>44993</v>
+        <v>45020</v>
       </c>
       <c r="F8" s="25">
-        <v>0</v>
+        <v>8954</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="27">
-        <v>44993</v>
+        <v>45020</v>
       </c>
       <c r="I8" s="28">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="43"/>
       <c r="L8" s="39"/>
       <c r="M8" s="30">
-        <v>0</v>
+        <v>4452</v>
       </c>
       <c r="N8" s="31">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33">
         <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>8954</v>
       </c>
       <c r="Q8" s="34">
         <f t="shared" si="0"/>
@@ -5806,43 +5867,47 @@
       <c r="R8" s="48">
         <v>0</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
-        <v>44994</v>
+        <v>45021</v>
       </c>
       <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44"/>
+        <v>3495</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="24">
-        <v>44994</v>
+        <v>45021</v>
       </c>
       <c r="F9" s="25">
-        <v>0</v>
+        <v>7326</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="27">
-        <v>44994</v>
+        <v>45021</v>
       </c>
       <c r="I9" s="28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="45"/>
       <c r="L9" s="39"/>
       <c r="M9" s="30">
-        <v>0</v>
+        <v>2416</v>
       </c>
       <c r="N9" s="31">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7326</v>
       </c>
       <c r="Q9" s="34">
         <f t="shared" si="0"/>
@@ -5851,43 +5916,47 @@
       <c r="R9" s="48">
         <v>0</v>
       </c>
-      <c r="S9" s="35"/>
+      <c r="S9" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21">
-        <v>44995</v>
+        <v>45022</v>
       </c>
       <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>3826</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="24">
-        <v>44995</v>
+        <v>45022</v>
       </c>
       <c r="F10" s="25">
-        <v>0</v>
+        <v>6099</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27">
-        <v>44995</v>
+        <v>45022</v>
       </c>
       <c r="I10" s="28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
       <c r="M10" s="30">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="N10" s="31">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>6099</v>
       </c>
       <c r="Q10" s="34">
         <f t="shared" si="0"/>
@@ -5896,7 +5965,9 @@
       <c r="R10" s="48">
         <v>0</v>
       </c>
-      <c r="S10" s="35"/>
+      <c r="S10" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="U10" t="s">
         <v>7</v>
       </c>
@@ -5904,38 +5975,40 @@
     <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21">
-        <v>44996</v>
+        <v>45023</v>
       </c>
       <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>3920</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="24">
-        <v>44996</v>
+        <v>45023</v>
       </c>
       <c r="F11" s="25">
-        <v>0</v>
+        <v>4882</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27">
-        <v>44996</v>
+        <v>45023</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
       </c>
       <c r="J11" s="42"/>
-      <c r="K11" s="222"/>
+      <c r="K11" s="181"/>
       <c r="L11" s="39"/>
       <c r="M11" s="30">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N11" s="31">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>4882</v>
       </c>
       <c r="Q11" s="34">
         <f t="shared" si="0"/>
@@ -5944,26 +6017,30 @@
       <c r="R11" s="48">
         <v>0</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21">
-        <v>44997</v>
+        <v>45024</v>
       </c>
       <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>2653</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="24">
-        <v>44997</v>
+        <v>45024</v>
       </c>
       <c r="F12" s="25">
-        <v>0</v>
+        <v>9822</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="27">
-        <v>44997</v>
+        <v>45024</v>
       </c>
       <c r="I12" s="28">
         <v>0</v>
@@ -5972,15 +6049,15 @@
       <c r="K12" s="49"/>
       <c r="L12" s="39"/>
       <c r="M12" s="30">
-        <v>0</v>
+        <v>4616</v>
       </c>
       <c r="N12" s="31">
-        <v>0</v>
+        <v>2553</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9822</v>
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="0"/>
@@ -5990,27 +6067,29 @@
         <v>0</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21">
-        <v>44998</v>
+        <v>45025</v>
       </c>
       <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40"/>
+        <v>523</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="24">
-        <v>44998</v>
+        <v>45025</v>
       </c>
       <c r="F13" s="25">
-        <v>0</v>
+        <v>5627</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="27">
-        <v>44998</v>
+        <v>45025</v>
       </c>
       <c r="I13" s="28">
         <v>0</v>
@@ -6019,15 +6098,15 @@
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="30">
-        <v>0</v>
+        <v>3573</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5627</v>
       </c>
       <c r="Q13" s="34">
         <f t="shared" si="0"/>
@@ -6036,92 +6115,96 @@
       <c r="R13" s="48">
         <v>0</v>
       </c>
-      <c r="S13" s="216" t="s">
-        <v>25</v>
+      <c r="S13" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21">
-        <v>44999</v>
+        <v>45026</v>
       </c>
       <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="44"/>
+        <v>3228</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="24">
-        <v>44999</v>
+        <v>45026</v>
       </c>
       <c r="F14" s="25">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="27">
-        <v>44999</v>
+        <v>45026</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="43"/>
       <c r="L14" s="39"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <v>5912</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="213">
+        <v>10300</v>
+      </c>
+      <c r="Q14" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="48">
         <v>0</v>
       </c>
-      <c r="S14" s="216" t="s">
-        <v>25</v>
+      <c r="S14" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
-        <v>45000</v>
+        <v>45027</v>
       </c>
       <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44"/>
+        <v>1374</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="24">
-        <v>45000</v>
+        <v>45027</v>
       </c>
       <c r="F15" s="25">
-        <v>0</v>
+        <v>7309</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="27">
-        <v>45000</v>
+        <v>45027</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="43"/>
       <c r="L15" s="39"/>
       <c r="M15" s="30">
-        <v>0</v>
+        <v>3754</v>
       </c>
       <c r="N15" s="31">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="O15" s="32"/>
       <c r="P15" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7309</v>
       </c>
       <c r="Q15" s="34">
         <f t="shared" si="0"/>
@@ -6130,28 +6213,30 @@
       <c r="R15" s="48">
         <v>0</v>
       </c>
-      <c r="S15" s="216" t="s">
-        <v>25</v>
+      <c r="S15" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21">
-        <v>45001</v>
+        <v>45028</v>
       </c>
       <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="50"/>
+        <v>2714</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" s="24">
-        <v>45001</v>
+        <v>45028</v>
       </c>
       <c r="F16" s="25">
-        <v>0</v>
+        <v>6497</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27">
-        <v>45001</v>
+        <v>45028</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
@@ -6160,45 +6245,49 @@
       <c r="K16" s="43"/>
       <c r="L16" s="9"/>
       <c r="M16" s="30">
-        <v>0</v>
+        <v>2941</v>
       </c>
       <c r="N16" s="31">
-        <v>0</v>
-      </c>
-      <c r="O16" s="32"/>
+        <v>842</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="P16" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="213">
+        <v>6497</v>
+      </c>
+      <c r="Q16" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="48">
         <v>0</v>
       </c>
-      <c r="S16" s="216" t="s">
-        <v>25</v>
+      <c r="S16" s="175" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21">
-        <v>45002</v>
+        <v>45029</v>
       </c>
       <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44"/>
+        <v>2943</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="24">
-        <v>45002</v>
+        <v>45029</v>
       </c>
       <c r="F17" s="25">
-        <v>0</v>
+        <v>6735</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="27">
-        <v>45002</v>
+        <v>45029</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
@@ -6207,17 +6296,17 @@
       <c r="K17" s="51"/>
       <c r="L17" s="47"/>
       <c r="M17" s="30">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="213">
+        <v>6735</v>
+      </c>
+      <c r="Q17" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6225,44 +6314,46 @@
         <v>0</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
-        <v>45003</v>
+        <v>45030</v>
       </c>
       <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>933</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E18" s="24">
-        <v>45003</v>
+        <v>45030</v>
       </c>
       <c r="F18" s="25">
-        <v>0</v>
+        <v>7231</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="27">
-        <v>45003</v>
+        <v>45030</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="52"/>
       <c r="L18" s="39"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <v>5263</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7231</v>
       </c>
       <c r="Q18" s="34">
         <f t="shared" si="0"/>
@@ -6272,27 +6363,29 @@
         <v>0</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21">
-        <v>45004</v>
+        <v>45031</v>
       </c>
       <c r="C19" s="22">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>3672</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="24">
-        <v>45004</v>
+        <v>45031</v>
       </c>
       <c r="F19" s="25">
-        <v>0</v>
+        <v>9551</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="27">
-        <v>45004</v>
+        <v>45031</v>
       </c>
       <c r="I19" s="28">
         <v>0</v>
@@ -6301,15 +6394,15 @@
       <c r="K19" s="53"/>
       <c r="L19" s="54"/>
       <c r="M19" s="30">
-        <v>0</v>
+        <v>4046</v>
       </c>
       <c r="N19" s="31">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9551</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="0"/>
@@ -6318,28 +6411,26 @@
       <c r="R19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
-        <v>45005</v>
+        <v>45032</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="24">
-        <v>45005</v>
+        <v>45032</v>
       </c>
       <c r="F20" s="25">
         <v>0</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="27">
-        <v>45005</v>
+        <v>45032</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
@@ -6365,28 +6456,26 @@
       <c r="R20" s="48">
         <v>0</v>
       </c>
-      <c r="S20" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
-        <v>45006</v>
+        <v>45033</v>
       </c>
       <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="24">
-        <v>45006</v>
+        <v>45033</v>
       </c>
       <c r="F21" s="25">
         <v>0</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="27">
-        <v>45006</v>
+        <v>45033</v>
       </c>
       <c r="I21" s="28">
         <v>0</v>
@@ -6412,28 +6501,26 @@
       <c r="R21" s="48">
         <v>0</v>
       </c>
-      <c r="S21" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21">
-        <v>45007</v>
+        <v>45034</v>
       </c>
       <c r="C22" s="22">
         <v>0</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="24">
-        <v>45007</v>
+        <v>45034</v>
       </c>
       <c r="F22" s="25">
         <v>0</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="27">
-        <v>45007</v>
+        <v>45034</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -6459,28 +6546,26 @@
       <c r="R22" s="48">
         <v>0</v>
       </c>
-      <c r="S22" s="215" t="s">
-        <v>27</v>
-      </c>
+      <c r="S22" s="174"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
-        <v>45008</v>
+        <v>45035</v>
       </c>
       <c r="C23" s="22">
         <v>0</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="24">
-        <v>45008</v>
+        <v>45035</v>
       </c>
       <c r="F23" s="25">
         <v>0</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27">
-        <v>45008</v>
+        <v>45035</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
@@ -6499,35 +6584,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="213">
+      <c r="Q23" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="48">
         <v>0</v>
       </c>
-      <c r="S23" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
-        <v>45009</v>
+        <v>45036</v>
       </c>
       <c r="C24" s="22">
         <v>0</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="24">
-        <v>45009</v>
+        <v>45036</v>
       </c>
       <c r="F24" s="25">
         <v>0</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="27">
-        <v>45009</v>
+        <v>45036</v>
       </c>
       <c r="I24" s="28">
         <v>0</v>
@@ -6553,28 +6636,26 @@
       <c r="R24" s="48">
         <v>0</v>
       </c>
-      <c r="S24" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S24" s="35"/>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
-        <v>45010</v>
+        <v>45037</v>
       </c>
       <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="24">
-        <v>45010</v>
+        <v>45037</v>
       </c>
       <c r="F25" s="25">
         <v>0</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="27">
-        <v>45010</v>
+        <v>45037</v>
       </c>
       <c r="I25" s="28">
         <v>0</v>
@@ -6600,28 +6681,26 @@
       <c r="R25" s="48">
         <v>0</v>
       </c>
-      <c r="S25" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S25" s="35"/>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21">
-        <v>45011</v>
+        <v>45038</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="24">
-        <v>45011</v>
+        <v>45038</v>
       </c>
       <c r="F26" s="25">
         <v>0</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="27">
-        <v>45011</v>
+        <v>45038</v>
       </c>
       <c r="I26" s="28">
         <v>0</v>
@@ -6647,28 +6726,26 @@
       <c r="R26" s="48">
         <v>0</v>
       </c>
-      <c r="S26" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
-        <v>45012</v>
+        <v>45039</v>
       </c>
       <c r="C27" s="22">
         <v>0</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="24">
-        <v>45012</v>
+        <v>45039</v>
       </c>
       <c r="F27" s="25">
         <v>0</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="27">
-        <v>45012</v>
+        <v>45039</v>
       </c>
       <c r="I27" s="28">
         <v>0</v>
@@ -6694,28 +6771,26 @@
       <c r="R27" s="48">
         <v>0</v>
       </c>
-      <c r="S27" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S27" s="35"/>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21">
-        <v>45013</v>
+        <v>45040</v>
       </c>
       <c r="C28" s="22">
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="24">
-        <v>45013</v>
+        <v>45040</v>
       </c>
       <c r="F28" s="25">
         <v>0</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="27">
-        <v>45013</v>
+        <v>45040</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -6741,28 +6816,26 @@
       <c r="R28" s="48">
         <v>0</v>
       </c>
-      <c r="S28" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21">
-        <v>45014</v>
+        <v>45041</v>
       </c>
       <c r="C29" s="22">
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="24">
-        <v>45014</v>
+        <v>45041</v>
       </c>
       <c r="F29" s="25">
         <v>0</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="27">
-        <v>45014</v>
+        <v>45041</v>
       </c>
       <c r="I29" s="28">
         <v>0</v>
@@ -6788,29 +6861,27 @@
       <c r="R29" s="48">
         <v>0</v>
       </c>
-      <c r="S29" s="215" t="s">
-        <v>27</v>
-      </c>
+      <c r="S29" s="174"/>
       <c r="T29" s="9"/>
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="21">
-        <v>45015</v>
+        <v>45042</v>
       </c>
       <c r="C30" s="22">
         <v>0</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="241"/>
       <c r="E30" s="24">
-        <v>45015</v>
+        <v>45042</v>
       </c>
       <c r="F30" s="25">
         <v>0</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27">
-        <v>45015</v>
+        <v>45042</v>
       </c>
       <c r="I30" s="28">
         <v>0</v>
@@ -6836,28 +6907,26 @@
       <c r="R30" s="48">
         <v>0</v>
       </c>
-      <c r="S30" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21">
-        <v>45016</v>
+        <v>45043</v>
       </c>
       <c r="C31" s="22">
         <v>0</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="24">
-        <v>45016</v>
+        <v>45043</v>
       </c>
       <c r="F31" s="25">
         <v>0</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="27">
-        <v>45016</v>
+        <v>45043</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
@@ -6887,13 +6956,19 @@
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="21">
+        <v>45044</v>
+      </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="24">
+        <v>45044</v>
+      </c>
       <c r="F32" s="25"/>
       <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="27">
+        <v>45044</v>
+      </c>
       <c r="I32" s="28">
         <v>0</v>
       </c>
@@ -6922,13 +6997,19 @@
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21">
+        <v>45045</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="24"/>
+      <c r="E33" s="24">
+        <v>45045</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="27">
+        <v>45045</v>
+      </c>
       <c r="I33" s="28">
         <v>0</v>
       </c>
@@ -6957,13 +7038,19 @@
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21">
+        <v>45046</v>
+      </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="24">
+        <v>45046</v>
+      </c>
       <c r="F34" s="25"/>
       <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="27">
+        <v>45046</v>
+      </c>
       <c r="I34" s="28">
         <v>0</v>
       </c>
@@ -6994,7 +7081,7 @@
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="75"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="26"/>
@@ -7347,21 +7434,21 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="185">
+      <c r="M45" s="210">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="187">
+        <v>46108</v>
+      </c>
+      <c r="N45" s="212">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>21380</v>
       </c>
       <c r="P45" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67488</v>
       </c>
       <c r="Q45" s="101">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="R45" s="101">
         <f>SUM(R5:R39)</f>
@@ -7383,8 +7470,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="186"/>
-      <c r="N46" s="188"/>
+      <c r="M46" s="211"/>
+      <c r="N46" s="213"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -7434,7 +7521,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>0</v>
+        <v>40102</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -7442,7 +7529,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>0</v>
+        <v>108639</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -7450,7 +7537,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="129" t="s">
@@ -7458,7 +7545,7 @@
       </c>
       <c r="L49" s="130">
         <f>SUM(L5:L48)</f>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -7476,32 +7563,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="189" t="s">
+      <c r="H51" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="190"/>
+      <c r="I51" s="215"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="191">
+      <c r="K51" s="216">
         <f>I49+L49</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="192"/>
-      <c r="M51" s="193">
+        <v>3414</v>
+      </c>
+      <c r="L51" s="217"/>
+      <c r="M51" s="218">
         <f>N45+M45</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="194"/>
+        <v>67488</v>
+      </c>
+      <c r="N51" s="219"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="195"/>
+      <c r="E52" s="202"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>0</v>
+        <v>65123</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -7509,20 +7596,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="220"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="174" t="s">
+      <c r="I53" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="175"/>
-      <c r="K53" s="176">
+      <c r="J53" s="222"/>
+      <c r="K53" s="223">
         <f>F55+F56+F57</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="177"/>
+        <v>65123</v>
+      </c>
+      <c r="L53" s="224"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -7546,18 +7633,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>0</v>
+        <v>65123</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="178">
+      <c r="K55" s="225">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="179"/>
+      <c r="L55" s="226"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -7570,22 +7657,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="180" t="s">
+      <c r="D57" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="181"/>
+      <c r="E57" s="228"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="182" t="s">
+      <c r="I57" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="183"/>
-      <c r="K57" s="184">
+      <c r="J57" s="230"/>
+      <c r="K57" s="231">
         <f>K53+K55</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="184"/>
+        <v>65123</v>
+      </c>
+      <c r="L57" s="231"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -7710,6 +7797,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
@@ -7717,21 +7819,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7779,18 +7866,18 @@
   <sheetData>
     <row r="3" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="C5" s="179" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="C5" s="220" t="s">
+    <row r="6" spans="3:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="180" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="221" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7806,7 +7893,7 @@
   </sheetPr>
   <dimension ref="C3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
@@ -7820,99 +7907,99 @@
     <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="184">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="185"/>
+      <c r="D16" s="187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="225">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="226"/>
-      <c r="D16" s="232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="226" t="s">
+      <c r="D17" s="186">
+        <v>-6299.83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="231">
-        <v>-6299.83</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="226" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="234">
+      <c r="D18" s="189">
         <v>-50</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C19" s="226" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="233">
+      <c r="C19" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="188">
         <f>SUM(D15:D18)</f>
         <v>-1947.83</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="224" t="s">
+      <c r="C20" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="184">
+        <v>121</v>
+      </c>
+      <c r="F20" s="190"/>
+    </row>
+    <row r="21" spans="3:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="225">
-        <v>121</v>
-      </c>
-      <c r="F20" s="235"/>
-    </row>
-    <row r="21" spans="3:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="224" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="237">
+      <c r="D21" s="192">
         <f>D20-D19</f>
         <v>2068.83</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="190"/>
+    </row>
+    <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="235"/>
-    </row>
-    <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="227" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="228"/>
-      <c r="F22" s="236"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="191"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="229"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="236"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="191"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D24" s="223"/>
-      <c r="F24" s="235"/>
+      <c r="D24" s="182"/>
+      <c r="F24" s="190"/>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D25" s="223"/>
+      <c r="D25" s="182"/>
     </row>
     <row r="26" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D26" s="223"/>
+      <c r="D26" s="182"/>
     </row>
     <row r="27" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D27" s="223"/>
+      <c r="D27" s="182"/>
     </row>
     <row r="28" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D28" s="223"/>
+      <c r="D28" s="182"/>
     </row>
     <row r="29" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D29" s="223"/>
+      <c r="D29" s="182"/>
     </row>
     <row r="30" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D30" s="223"/>
+      <c r="D30" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  VERDURAS   ABRIL   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  VERDURAS   ABRIL   2023.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -243,9 +243,6 @@
     <t>VERDURAS</t>
   </si>
   <si>
-    <t>MARZO,.2023</t>
-  </si>
-  <si>
     <t>Frutas y verduras</t>
   </si>
   <si>
@@ -292,6 +289,21 @@
   </si>
   <si>
     <t>Margarita</t>
+  </si>
+  <si>
+    <t>AGUACATE-TORTILLAS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ABRIL,.2023</t>
+  </si>
+  <si>
+    <t>Frutas y Verduras</t>
+  </si>
+  <si>
+    <t>Total Play</t>
   </si>
 </sst>
 </file>
@@ -712,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1550,12 +1562,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1894,15 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,135 +1937,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2064,6 +1951,152 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="43" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2073,9 +2106,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF33"/>
@@ -2524,13 +2557,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2577,13 +2610,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2630,13 +2663,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2683,13 +2716,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2736,13 +2769,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2797,7 +2830,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -2892,13 +2925,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2939,6 +2972,58 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Cerrar llave 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296649" y="5543550"/>
+          <a:ext cx="638175" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3212,7 +3297,7 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -3239,31 +3324,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="203"/>
-      <c r="C1" s="205" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="204"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -3272,21 +3357,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="208"/>
+      <c r="B3" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="224"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="209" t="s">
+      <c r="H3" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="209"/>
+      <c r="I3" s="225"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="193" t="s">
+      <c r="R3" s="228" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3299,14 +3384,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="H4" s="197" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="198"/>
+      <c r="I4" s="233"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -3316,11 +3401,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="199" t="s">
+      <c r="P4" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="194"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="229"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -3635,7 +3720,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="42"/>
-      <c r="K11" s="181"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="39"/>
       <c r="M11" s="30">
         <f>3227+1000</f>
@@ -4719,7 +4804,7 @@
         <v>3427.18</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
@@ -4732,7 +4817,7 @@
         <v>45012</v>
       </c>
       <c r="K34" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" s="82">
         <v>366.28</v>
@@ -4766,7 +4851,7 @@
         <v>4844.88</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -4778,8 +4863,8 @@
       <c r="J35" s="72">
         <v>45014</v>
       </c>
-      <c r="K35" s="236" t="s">
-        <v>36</v>
+      <c r="K35" s="190" t="s">
+        <v>35</v>
       </c>
       <c r="L35" s="80">
         <v>2255</v>
@@ -4813,7 +4898,7 @@
         <v>808</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
@@ -4854,7 +4939,7 @@
         <v>520</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
@@ -4894,7 +4979,7 @@
         <v>2605.79</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
@@ -4934,7 +5019,7 @@
         <v>3003.1</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
@@ -5150,11 +5235,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="210">
+      <c r="M45" s="226">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="212">
+      <c r="N45" s="205">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -5186,8 +5271,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="211"/>
-      <c r="N46" s="213"/>
+      <c r="M46" s="227"/>
+      <c r="N46" s="206"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -5279,29 +5364,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="214" t="s">
+      <c r="H51" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="215"/>
+      <c r="I51" s="208"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="216">
+      <c r="K51" s="209">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="217"/>
-      <c r="M51" s="218">
+      <c r="L51" s="210"/>
+      <c r="M51" s="211">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="219"/>
+      <c r="N51" s="212"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="202" t="s">
+      <c r="D52" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="202"/>
+      <c r="E52" s="218"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -5312,20 +5397,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
+      <c r="D53" s="213"/>
+      <c r="E53" s="213"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="221" t="s">
+      <c r="I53" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="222"/>
-      <c r="K53" s="223">
+      <c r="J53" s="215"/>
+      <c r="K53" s="216">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="224"/>
+      <c r="L53" s="217"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -5356,11 +5441,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="225">
+      <c r="K55" s="198">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="226"/>
+      <c r="L55" s="199"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -5373,22 +5458,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="227" t="s">
+      <c r="D57" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="228"/>
+      <c r="E57" s="201"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="229" t="s">
+      <c r="I57" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="230"/>
-      <c r="K57" s="231">
+      <c r="J57" s="203"/>
+      <c r="K57" s="204">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="231"/>
+      <c r="L57" s="204"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -5513,6 +5598,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -5525,16 +5620,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5548,10 +5633,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,56 +5665,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="203"/>
-      <c r="C1" s="205" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="221" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="204"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="243" t="s">
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="177"/>
-      <c r="M2" s="242">
+      <c r="M2" s="196">
         <v>45019</v>
       </c>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="208"/>
+      <c r="B3" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="224"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="209" t="s">
+      <c r="H3" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="209"/>
+      <c r="I3" s="225"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="193" t="s">
+      <c r="R3" s="228" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5639,14 +5727,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="H4" s="197" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="198"/>
+      <c r="I4" s="233"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -5656,11 +5744,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="199" t="s">
+      <c r="P4" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="194"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="229"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5672,7 +5760,7 @@
       <c r="C5" s="22">
         <v>4271</v>
       </c>
-      <c r="D5" s="240" t="s">
+      <c r="D5" s="194" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="24">
@@ -5704,14 +5792,14 @@
         <v>7711</v>
       </c>
       <c r="Q5" s="34">
-        <f t="shared" ref="Q5:Q44" si="0">P5-F5</f>
+        <f t="shared" ref="Q5:Q62" si="0">P5-F5</f>
         <v>0</v>
       </c>
       <c r="R5" s="48">
         <v>0</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5762,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6" s="9"/>
     </row>
@@ -5793,10 +5881,10 @@
       <c r="J7" s="37">
         <v>45019</v>
       </c>
-      <c r="K7" s="238" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="239">
+      <c r="K7" s="192" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="193">
         <v>2365</v>
       </c>
       <c r="M7" s="30">
@@ -5811,7 +5899,7 @@
         <f>N7+M7+L7+I7+C7</f>
         <v>9482</v>
       </c>
-      <c r="Q7" s="237">
+      <c r="Q7" s="191">
         <f t="shared" si="0"/>
         <v>2365</v>
       </c>
@@ -5819,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5857,7 +5945,7 @@
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33">
-        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P63" si="1">N8+M8+L8+I8+C8</f>
         <v>8954</v>
       </c>
       <c r="Q8" s="34">
@@ -5868,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5917,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5966,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
         <v>7</v>
@@ -5997,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="42"/>
-      <c r="K11" s="181"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="39"/>
       <c r="M11" s="30">
         <v>122</v>
@@ -6018,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6067,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6116,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6165,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6214,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6265,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6314,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6363,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6411,7 +6499,9 @@
       <c r="R19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="35" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
@@ -6419,14 +6509,16 @@
         <v>45032</v>
       </c>
       <c r="C20" s="22">
-        <v>0</v>
-      </c>
-      <c r="D20" s="50"/>
+        <v>464</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="24">
         <v>45032</v>
       </c>
       <c r="F20" s="25">
-        <v>0</v>
+        <v>6430</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="27">
@@ -6439,15 +6531,17 @@
       <c r="K20" s="55"/>
       <c r="L20" s="47"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <v>4374</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
-      </c>
-      <c r="O20" s="32"/>
+        <v>1592</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="P20" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6430</v>
       </c>
       <c r="Q20" s="34">
         <f t="shared" si="0"/>
@@ -6456,7 +6550,9 @@
       <c r="R20" s="48">
         <v>0</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
@@ -6464,14 +6560,16 @@
         <v>45033</v>
       </c>
       <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="50"/>
+        <v>3901</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="24">
         <v>45033</v>
       </c>
       <c r="F21" s="25">
-        <v>0</v>
+        <v>13738</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="27">
@@ -6484,15 +6582,15 @@
       <c r="K21" s="56"/>
       <c r="L21" s="47"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <v>6183</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>3654</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13738</v>
       </c>
       <c r="Q21" s="34">
         <f t="shared" si="0"/>
@@ -6501,7 +6599,9 @@
       <c r="R21" s="48">
         <v>0</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
@@ -6509,35 +6609,37 @@
         <v>45034</v>
       </c>
       <c r="C22" s="22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="50"/>
+        <v>3312</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E22" s="24">
         <v>45034</v>
       </c>
       <c r="F22" s="25">
-        <v>0</v>
+        <v>9329</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="27">
         <v>45034</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="43"/>
       <c r="L22" s="57"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="N22" s="31">
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9329</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="0"/>
@@ -6546,7 +6648,9 @@
       <c r="R22" s="48">
         <v>0</v>
       </c>
-      <c r="S22" s="174"/>
+      <c r="S22" s="35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
@@ -6554,14 +6658,16 @@
         <v>45035</v>
       </c>
       <c r="C23" s="22">
-        <v>0</v>
-      </c>
-      <c r="D23" s="50"/>
+        <v>1540</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E23" s="24">
         <v>45035</v>
       </c>
       <c r="F23" s="25">
-        <v>0</v>
+        <v>6527</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27">
@@ -6574,24 +6680,26 @@
       <c r="K23" s="59"/>
       <c r="L23" s="47"/>
       <c r="M23" s="30">
-        <v>0</v>
+        <v>4015</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6539</v>
       </c>
       <c r="Q23" s="172">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R23" s="48">
         <v>0</v>
       </c>
-      <c r="S23" s="35"/>
+      <c r="S23" s="175" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
@@ -6599,35 +6707,37 @@
         <v>45036</v>
       </c>
       <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="50"/>
+        <v>3899</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="24">
         <v>45036</v>
       </c>
       <c r="F24" s="25">
-        <v>0</v>
+        <v>7590</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="27">
         <v>45036</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
       <c r="M24" s="30">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>1545</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7590</v>
       </c>
       <c r="Q24" s="34">
         <f t="shared" si="0"/>
@@ -6636,7 +6746,9 @@
       <c r="R24" s="48">
         <v>0</v>
       </c>
-      <c r="S24" s="35"/>
+      <c r="S24" s="35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
@@ -6644,14 +6756,16 @@
         <v>45037</v>
       </c>
       <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="50"/>
+        <v>2217</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E25" s="24">
         <v>45037</v>
       </c>
       <c r="F25" s="25">
-        <v>0</v>
+        <v>6080</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="27">
@@ -6664,15 +6778,15 @@
       <c r="K25" s="64"/>
       <c r="L25" s="65"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <v>3163</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O25" s="32"/>
       <c r="P25" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6080</v>
       </c>
       <c r="Q25" s="34">
         <f t="shared" si="0"/>
@@ -6689,35 +6803,37 @@
         <v>45038</v>
       </c>
       <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="50"/>
+        <v>6746</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E26" s="24">
         <v>45038</v>
       </c>
       <c r="F26" s="25">
-        <v>0</v>
+        <v>13318</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="27">
         <v>45038</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="61"/>
       <c r="L26" s="47"/>
       <c r="M26" s="30">
-        <v>0</v>
+        <v>4235</v>
       </c>
       <c r="N26" s="31">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="O26" s="32"/>
       <c r="P26" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13318</v>
       </c>
       <c r="Q26" s="34">
         <f t="shared" si="0"/>
@@ -6734,14 +6850,16 @@
         <v>45039</v>
       </c>
       <c r="C27" s="22">
-        <v>0</v>
-      </c>
-      <c r="D27" s="50"/>
+        <v>499</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="24">
         <v>45039</v>
       </c>
       <c r="F27" s="25">
-        <v>0</v>
+        <v>3812</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="27">
@@ -6754,15 +6872,16 @@
       <c r="K27" s="67"/>
       <c r="L27" s="65"/>
       <c r="M27" s="30">
-        <v>0</v>
+        <f>1995+221</f>
+        <v>2216</v>
       </c>
       <c r="N27" s="31">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="O27" s="32"/>
       <c r="P27" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3812</v>
       </c>
       <c r="Q27" s="34">
         <f t="shared" si="0"/>
@@ -6779,35 +6898,37 @@
         <v>45040</v>
       </c>
       <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="50"/>
+        <v>4204</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E28" s="24">
         <v>45040</v>
       </c>
       <c r="F28" s="25">
-        <v>0</v>
+        <v>9514</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="27">
         <v>45040</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J28" s="68"/>
       <c r="K28" s="69"/>
       <c r="L28" s="65"/>
       <c r="M28" s="30">
-        <v>0</v>
+        <v>3629</v>
       </c>
       <c r="N28" s="31">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="O28" s="32"/>
       <c r="P28" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9514</v>
       </c>
       <c r="Q28" s="34">
         <f t="shared" si="0"/>
@@ -6824,35 +6945,37 @@
         <v>45041</v>
       </c>
       <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="241"/>
+        <v>5461</v>
+      </c>
+      <c r="D29" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="24">
         <v>45041</v>
       </c>
       <c r="F29" s="25">
-        <v>0</v>
+        <v>9069</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="27">
         <v>45041</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J29" s="66"/>
       <c r="K29" s="71"/>
       <c r="L29" s="65"/>
       <c r="M29" s="30">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="N29" s="31">
-        <v>0</v>
+        <v>2153</v>
       </c>
       <c r="O29" s="32"/>
       <c r="P29" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9069</v>
       </c>
       <c r="Q29" s="34">
         <f t="shared" si="0"/>
@@ -6870,35 +6993,37 @@
         <v>45042</v>
       </c>
       <c r="C30" s="22">
-        <v>0</v>
-      </c>
-      <c r="D30" s="241"/>
+        <v>3963</v>
+      </c>
+      <c r="D30" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="24">
         <v>45042</v>
       </c>
       <c r="F30" s="25">
-        <v>0</v>
+        <v>7292</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27">
         <v>45042</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J30" s="72"/>
       <c r="K30" s="73"/>
       <c r="L30" s="74"/>
       <c r="M30" s="30">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="N30" s="31">
-        <v>0</v>
+        <v>1518</v>
       </c>
       <c r="O30" s="32"/>
       <c r="P30" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7292</v>
       </c>
       <c r="Q30" s="34">
         <f t="shared" si="0"/>
@@ -6915,35 +7040,37 @@
         <v>45043</v>
       </c>
       <c r="C31" s="22">
-        <v>0</v>
-      </c>
-      <c r="D31" s="79"/>
+        <v>2756</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="24">
         <v>45043</v>
       </c>
       <c r="F31" s="25">
-        <v>0</v>
+        <v>6228</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="27">
         <v>45043</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J31" s="72"/>
       <c r="K31" s="76"/>
       <c r="L31" s="77"/>
       <c r="M31" s="30">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="N31" s="31">
-        <v>0</v>
+        <v>1810</v>
       </c>
       <c r="O31" s="32"/>
       <c r="P31" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6228</v>
       </c>
       <c r="Q31" s="34">
         <f t="shared" si="0"/>
@@ -6959,32 +7086,38 @@
       <c r="B32" s="21">
         <v>45044</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="22">
+        <v>4827</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E32" s="24">
         <v>45044</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <v>6211</v>
+      </c>
       <c r="G32" s="26"/>
       <c r="H32" s="27">
         <v>45044</v>
       </c>
       <c r="I32" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32" s="72"/>
       <c r="K32" s="73"/>
       <c r="L32" s="74"/>
       <c r="M32" s="30">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="N32" s="31">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="O32" s="32"/>
       <c r="P32" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6211</v>
       </c>
       <c r="Q32" s="34">
         <f t="shared" si="0"/>
@@ -7000,32 +7133,38 @@
       <c r="B33" s="21">
         <v>45045</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="22">
+        <v>3827</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="24">
         <v>45045</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="25">
+        <v>7127</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="27">
         <v>45045</v>
       </c>
       <c r="I33" s="28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J33" s="72"/>
       <c r="K33" s="76"/>
       <c r="L33" s="80"/>
       <c r="M33" s="30">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="N33" s="31">
-        <v>0</v>
+        <v>1688</v>
       </c>
       <c r="O33" s="32"/>
       <c r="P33" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7127</v>
       </c>
       <c r="Q33" s="34">
         <f t="shared" si="0"/>
@@ -7041,12 +7180,18 @@
       <c r="B34" s="21">
         <v>45046</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="22">
+        <v>80</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="24">
         <v>45046</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="25">
+        <v>5355</v>
+      </c>
       <c r="G34" s="26"/>
       <c r="H34" s="27">
         <v>45046</v>
@@ -7058,15 +7203,15 @@
       <c r="K34" s="81"/>
       <c r="L34" s="82"/>
       <c r="M34" s="30">
-        <v>0</v>
+        <v>3652</v>
       </c>
       <c r="N34" s="31">
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5355</v>
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="0"/>
@@ -7147,11 +7292,17 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="247">
+        <v>45017</v>
+      </c>
+      <c r="C37" s="244">
+        <v>1453.32</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>51</v>
+      </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
@@ -7159,9 +7310,15 @@
       <c r="I37" s="28">
         <v>0</v>
       </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="80"/>
+      <c r="J37" s="72">
+        <v>45030</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="80">
+        <v>833</v>
+      </c>
       <c r="M37" s="30">
         <v>0</v>
       </c>
@@ -7181,11 +7338,17 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="247">
+        <v>45017</v>
+      </c>
+      <c r="C38" s="244">
+        <v>803.6</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>34</v>
+      </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -7215,11 +7378,17 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="247">
+        <v>45019</v>
+      </c>
+      <c r="C39" s="244">
+        <v>1706.72</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
       <c r="G39" s="26"/>
@@ -7228,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="72"/>
-      <c r="K39" s="87"/>
+      <c r="K39" s="76"/>
       <c r="L39" s="74"/>
       <c r="M39" s="30">
         <v>0</v>
@@ -7244,16 +7413,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R39" s="48">
-        <v>0</v>
-      </c>
+      <c r="R39" s="48"/>
       <c r="S39" s="35"/>
     </row>
     <row r="40" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="247">
+        <v>45020</v>
+      </c>
+      <c r="C40" s="244">
+        <v>1954.55</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
       <c r="G40" s="26"/>
@@ -7262,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="72"/>
-      <c r="K40" s="88"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="74"/>
       <c r="M40" s="30">
         <v>0</v>
@@ -7278,16 +7451,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R40" s="48">
-        <v>0</v>
-      </c>
+      <c r="R40" s="48"/>
       <c r="S40" s="35"/>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="247">
+        <v>45021</v>
+      </c>
+      <c r="C41" s="244">
+        <v>2517.11</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
       <c r="G41" s="26"/>
@@ -7296,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="72"/>
-      <c r="K41" s="87"/>
+      <c r="K41" s="76"/>
       <c r="L41" s="74"/>
       <c r="M41" s="30">
         <v>0</v>
@@ -7312,16 +7489,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R41" s="48">
-        <v>0</v>
-      </c>
+      <c r="R41" s="48"/>
       <c r="S41" s="35"/>
     </row>
-    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="247">
+        <v>45026</v>
+      </c>
+      <c r="C42" s="244">
+        <v>7402.03</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
       <c r="G42" s="26"/>
@@ -7330,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="72"/>
-      <c r="K42" s="87"/>
+      <c r="K42" s="76"/>
       <c r="L42" s="74"/>
       <c r="M42" s="30">
         <v>0</v>
@@ -7346,25 +7527,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R42" s="48">
-        <v>0</v>
-      </c>
+      <c r="R42" s="48"/>
       <c r="S42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="79"/>
+      <c r="B43" s="247">
+        <v>45026</v>
+      </c>
+      <c r="C43" s="244">
+        <v>805</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>34</v>
+      </c>
       <c r="E43" s="24"/>
-      <c r="F43" s="89"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
       <c r="I43" s="28">
         <v>0</v>
       </c>
       <c r="J43" s="72"/>
-      <c r="K43" s="87"/>
+      <c r="K43" s="76"/>
       <c r="L43" s="74"/>
       <c r="M43" s="30">
         <v>0</v>
@@ -7373,452 +7558,1120 @@
         <v>0</v>
       </c>
       <c r="O43" s="32"/>
-      <c r="P43" s="91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="92">
+      <c r="P43" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R43" s="93">
-        <v>0</v>
-      </c>
+      <c r="R43" s="48"/>
       <c r="S43" s="35"/>
     </row>
-    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="247">
+        <v>45027</v>
+      </c>
+      <c r="C44" s="244">
+        <v>3835.6</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="89"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
       <c r="I44" s="28">
         <v>0</v>
       </c>
       <c r="J44" s="72"/>
-      <c r="K44" s="87"/>
+      <c r="K44" s="76"/>
       <c r="L44" s="74"/>
-      <c r="M44" s="94">
-        <v>0</v>
-      </c>
-      <c r="N44" s="95"/>
+      <c r="M44" s="30">
+        <v>0</v>
+      </c>
+      <c r="N44" s="31">
+        <v>0</v>
+      </c>
       <c r="O44" s="32"/>
-      <c r="P44" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
+      <c r="P44" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R44" s="13">
-        <v>0</v>
-      </c>
+      <c r="R44" s="48"/>
       <c r="S44" s="35"/>
     </row>
-    <row r="45" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="97"/>
+      <c r="B45" s="247">
+        <v>45027</v>
+      </c>
+      <c r="C45" s="244">
+        <v>6004.96</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E45" s="24"/>
-      <c r="F45" s="98"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="28">
         <v>0</v>
       </c>
       <c r="J45" s="72"/>
-      <c r="K45" s="99"/>
+      <c r="K45" s="76"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="210">
-        <f>SUM(M5:M39)</f>
-        <v>46108</v>
-      </c>
-      <c r="N45" s="212">
-        <f>SUM(N5:N39)</f>
-        <v>21380</v>
-      </c>
-      <c r="P45" s="100">
-        <f t="shared" si="1"/>
-        <v>67488</v>
-      </c>
-      <c r="Q45" s="101">
-        <f>SUM(Q5:Q39)</f>
-        <v>2365</v>
-      </c>
-      <c r="R45" s="101">
-        <f>SUM(R5:R39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="30">
+        <v>0</v>
+      </c>
+      <c r="N45" s="31">
+        <v>0</v>
+      </c>
+      <c r="O45" s="32"/>
+      <c r="P45" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="48"/>
+      <c r="S45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="247">
+        <v>45028</v>
+      </c>
+      <c r="C46" s="244">
+        <v>1134.69</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>51</v>
+      </c>
       <c r="E46" s="24"/>
-      <c r="F46" s="103"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="26"/>
       <c r="H46" s="27"/>
       <c r="I46" s="28">
         <v>0</v>
       </c>
       <c r="J46" s="72"/>
-      <c r="K46" s="104"/>
+      <c r="K46" s="76"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="211"/>
-      <c r="N46" s="213"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M46" s="30">
+        <v>0</v>
+      </c>
+      <c r="N46" s="31">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32"/>
+      <c r="P46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="48"/>
+      <c r="S46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="90"/>
+      <c r="B47" s="247">
+        <v>45029</v>
+      </c>
+      <c r="C47" s="244">
+        <v>814</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28">
+        <v>0</v>
+      </c>
       <c r="J47" s="72"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="114"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="76"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="30">
+        <v>0</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0</v>
+      </c>
+      <c r="O47" s="32"/>
+      <c r="P47" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="48"/>
+      <c r="S47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="22">
-        <v>0</v>
-      </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="106"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="31"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="121" t="s">
+      <c r="B48" s="247">
+        <v>45029</v>
+      </c>
+      <c r="C48" s="244">
+        <v>1376.01</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28">
+        <v>0</v>
+      </c>
+      <c r="J48" s="72"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="30">
+        <v>0</v>
+      </c>
+      <c r="N48" s="31">
+        <v>0</v>
+      </c>
+      <c r="O48" s="32"/>
+      <c r="P48" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="48"/>
+      <c r="S48" s="35"/>
+    </row>
+    <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="247">
+        <v>45030</v>
+      </c>
+      <c r="C49" s="244">
+        <v>4241.28</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28">
+        <v>0</v>
+      </c>
+      <c r="J49" s="72"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="30">
+        <v>0</v>
+      </c>
+      <c r="N49" s="31">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32"/>
+      <c r="P49" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="48">
+        <v>0</v>
+      </c>
+      <c r="S49" s="35"/>
+    </row>
+    <row r="50" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="247">
+        <v>45031</v>
+      </c>
+      <c r="C50" s="244">
+        <v>2046.33</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28">
+        <v>0</v>
+      </c>
+      <c r="J50" s="72"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="30">
+        <v>0</v>
+      </c>
+      <c r="N50" s="31">
+        <v>0</v>
+      </c>
+      <c r="O50" s="32"/>
+      <c r="P50" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="48">
+        <v>0</v>
+      </c>
+      <c r="S50" s="35"/>
+    </row>
+    <row r="51" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="247">
+        <v>45033</v>
+      </c>
+      <c r="C51" s="244">
+        <v>5628.58</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28">
+        <v>0</v>
+      </c>
+      <c r="J51" s="72"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="30">
+        <v>0</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0</v>
+      </c>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="48">
+        <v>0</v>
+      </c>
+      <c r="S51" s="35"/>
+    </row>
+    <row r="52" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="247">
+        <v>45034</v>
+      </c>
+      <c r="C52" s="244">
+        <v>7366.69</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28">
+        <v>0</v>
+      </c>
+      <c r="J52" s="72"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="30">
+        <v>0</v>
+      </c>
+      <c r="N52" s="31">
+        <v>0</v>
+      </c>
+      <c r="O52" s="32"/>
+      <c r="P52" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="149">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="246">
+        <v>0</v>
+      </c>
+      <c r="S52" s="35"/>
+    </row>
+    <row r="53" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="247">
+        <v>45035</v>
+      </c>
+      <c r="C53" s="244">
+        <v>4652.38</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="30">
+        <v>0</v>
+      </c>
+      <c r="N53" s="31">
+        <v>0</v>
+      </c>
+      <c r="O53" s="32"/>
+      <c r="P53" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="149">
+        <f t="shared" ref="Q53:Q61" si="2">P53-F53</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="245"/>
+      <c r="S53" s="35"/>
+    </row>
+    <row r="54" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="247">
+        <v>45036</v>
+      </c>
+      <c r="C54" s="244">
+        <v>808.93299999999999</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="30">
+        <v>0</v>
+      </c>
+      <c r="N54" s="31">
+        <v>0</v>
+      </c>
+      <c r="O54" s="32"/>
+      <c r="P54" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="245"/>
+      <c r="S54" s="35"/>
+    </row>
+    <row r="55" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="247">
+        <v>45037</v>
+      </c>
+      <c r="C55" s="244">
+        <v>1678.97</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="30">
+        <v>0</v>
+      </c>
+      <c r="N55" s="31">
+        <v>0</v>
+      </c>
+      <c r="O55" s="32"/>
+      <c r="P55" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="245"/>
+      <c r="S55" s="35"/>
+    </row>
+    <row r="56" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="247">
+        <v>45038</v>
+      </c>
+      <c r="C56" s="244">
+        <v>4298.09</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="30">
+        <v>0</v>
+      </c>
+      <c r="N56" s="31">
+        <v>0</v>
+      </c>
+      <c r="O56" s="32"/>
+      <c r="P56" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="245"/>
+      <c r="S56" s="35"/>
+    </row>
+    <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="247">
+        <v>45040</v>
+      </c>
+      <c r="C57" s="244">
+        <v>1466.85</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="30">
+        <v>0</v>
+      </c>
+      <c r="N57" s="31">
+        <v>0</v>
+      </c>
+      <c r="O57" s="32"/>
+      <c r="P57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="245"/>
+      <c r="S57" s="35"/>
+    </row>
+    <row r="58" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="247">
+        <v>45041</v>
+      </c>
+      <c r="C58" s="244">
+        <v>1613.41</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="30">
+        <v>0</v>
+      </c>
+      <c r="N58" s="31">
+        <v>0</v>
+      </c>
+      <c r="O58" s="32"/>
+      <c r="P58" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="245"/>
+      <c r="S58" s="35"/>
+    </row>
+    <row r="59" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="247">
+        <v>45041</v>
+      </c>
+      <c r="C59" s="244">
+        <v>1162</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="30">
+        <v>0</v>
+      </c>
+      <c r="N59" s="31">
+        <v>0</v>
+      </c>
+      <c r="O59" s="32"/>
+      <c r="P59" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="245"/>
+      <c r="S59" s="35"/>
+    </row>
+    <row r="60" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="247">
+        <v>45042</v>
+      </c>
+      <c r="C60" s="244">
+        <v>1930.93</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="30">
+        <v>0</v>
+      </c>
+      <c r="N60" s="31">
+        <v>0</v>
+      </c>
+      <c r="O60" s="32"/>
+      <c r="P60" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="245"/>
+      <c r="S60" s="35"/>
+    </row>
+    <row r="61" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="30">
+        <v>0</v>
+      </c>
+      <c r="N61" s="31">
+        <v>0</v>
+      </c>
+      <c r="O61" s="32"/>
+      <c r="P61" s="102">
+        <f t="shared" ref="P53:P61" si="3">N61+M61+L61+I61+C61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="245"/>
+      <c r="S61" s="35"/>
+    </row>
+    <row r="62" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28">
+        <v>0</v>
+      </c>
+      <c r="J62" s="72"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="94">
+        <v>0</v>
+      </c>
+      <c r="N62" s="31">
+        <v>0</v>
+      </c>
+      <c r="O62" s="32"/>
+      <c r="P62" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0</v>
+      </c>
+      <c r="S62" s="35"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28">
+        <v>0</v>
+      </c>
+      <c r="J63" s="72"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="226">
+        <f>SUM(M5:M48)</f>
+        <v>88632</v>
+      </c>
+      <c r="N63" s="205">
+        <f>SUM(N5:N48)</f>
+        <v>46604</v>
+      </c>
+      <c r="P63" s="100">
+        <f t="shared" si="1"/>
+        <v>135236</v>
+      </c>
+      <c r="Q63" s="101">
+        <f>SUM(Q5:Q48)</f>
+        <v>2377</v>
+      </c>
+      <c r="R63" s="101">
+        <f>SUM(R5:R48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28">
+        <v>0</v>
+      </c>
+      <c r="J64" s="72"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="227"/>
+      <c r="N64" s="206"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="114"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="9"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="22">
+        <v>0</v>
+      </c>
+      <c r="D66" s="115"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="106"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="119"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="31"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="9"/>
+    </row>
+    <row r="67" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="122">
-        <f>SUM(C5:C48)</f>
-        <v>40102</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124" t="s">
+      <c r="C67" s="122">
+        <f>SUM(C5:C66)</f>
+        <v>154500.03300000002</v>
+      </c>
+      <c r="D67" s="123"/>
+      <c r="E67" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="125">
-        <f>SUM(F5:F48)</f>
-        <v>108639</v>
-      </c>
-      <c r="G49" s="123"/>
-      <c r="H49" s="126" t="s">
+      <c r="F67" s="125">
+        <f>SUM(F5:F66)</f>
+        <v>226259</v>
+      </c>
+      <c r="G67" s="123"/>
+      <c r="H67" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="127">
-        <f>SUM(I5:I48)</f>
-        <v>1049</v>
-      </c>
-      <c r="J49" s="128"/>
-      <c r="K49" s="129" t="s">
+      <c r="I67" s="127">
+        <f>SUM(I5:I66)</f>
+        <v>3237</v>
+      </c>
+      <c r="J67" s="128"/>
+      <c r="K67" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="130">
-        <f>SUM(L5:L48)</f>
-        <v>2365</v>
-      </c>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="4" t="s">
+      <c r="L67" s="130">
+        <f>SUM(L5:L66)</f>
+        <v>3198</v>
+      </c>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="9"/>
+    </row>
+    <row r="68" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="1"/>
-      <c r="H51" s="214" t="s">
+      <c r="P68" s="96"/>
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="133"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="1"/>
+      <c r="H69" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="215"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="216">
-        <f>I49+L49</f>
-        <v>3414</v>
-      </c>
-      <c r="L51" s="217"/>
-      <c r="M51" s="218">
-        <f>N45+M45</f>
-        <v>67488</v>
-      </c>
-      <c r="N51" s="219"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="202" t="s">
+      <c r="I69" s="208"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="209">
+        <f>I67+L67</f>
+        <v>6435</v>
+      </c>
+      <c r="L69" s="210"/>
+      <c r="M69" s="211">
+        <f>N63+M63</f>
+        <v>135236</v>
+      </c>
+      <c r="N69" s="212"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D70" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="202"/>
-      <c r="F52" s="136">
-        <f>F49-K51-C49</f>
-        <v>65123</v>
-      </c>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="131">
-        <v>0</v>
-      </c>
-      <c r="I53" s="221" t="s">
+      <c r="E70" s="218"/>
+      <c r="F70" s="136">
+        <f>F67-K69-C67</f>
+        <v>65323.966999999975</v>
+      </c>
+      <c r="I70" s="137"/>
+      <c r="J70" s="138"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D71" s="213"/>
+      <c r="E71" s="213"/>
+      <c r="F71" s="131">
+        <v>0</v>
+      </c>
+      <c r="I71" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="222"/>
-      <c r="K53" s="223">
-        <f>F55+F56+F57</f>
-        <v>65123</v>
-      </c>
-      <c r="L53" s="224"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="141">
-        <v>0</v>
-      </c>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="145"/>
-    </row>
-    <row r="55" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+      <c r="J71" s="215"/>
+      <c r="K71" s="216">
+        <f>F73+F74+F75</f>
+        <v>65323.966999999975</v>
+      </c>
+      <c r="L71" s="217"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="139"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="141">
+        <v>0</v>
+      </c>
+      <c r="I72" s="142"/>
+      <c r="J72" s="143"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="145"/>
+    </row>
+    <row r="73" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="133" t="s">
+      <c r="E73" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="131">
-        <f>SUM(F52:F54)</f>
-        <v>65123</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="146" t="s">
+      <c r="F73" s="131">
+        <f>SUM(F70:F72)</f>
+        <v>65323.966999999975</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="147"/>
-      <c r="K55" s="225">
+      <c r="J73" s="147"/>
+      <c r="K73" s="198">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="226"/>
-    </row>
-    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="148" t="s">
+      <c r="L73" s="199"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="133"/>
-      <c r="F56" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="150"/>
-      <c r="D57" s="227" t="s">
+      <c r="E74" s="133"/>
+      <c r="F74" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="150"/>
+      <c r="D75" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="228"/>
-      <c r="F57" s="151">
-        <v>0</v>
-      </c>
-      <c r="I57" s="229" t="s">
+      <c r="E75" s="201"/>
+      <c r="F75" s="151">
+        <v>0</v>
+      </c>
+      <c r="I75" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="230"/>
-      <c r="K57" s="231">
-        <f>K53+K55</f>
-        <v>65123</v>
-      </c>
-      <c r="L57" s="231"/>
-    </row>
-    <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="155"/>
-      <c r="J58" s="156"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="96"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="162"/>
-      <c r="N60" s="133"/>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="159"/>
-      <c r="C61" s="163"/>
-      <c r="E61" s="96"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="133"/>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="159"/>
-      <c r="C62" s="163"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="164"/>
-      <c r="L62" s="165"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="159"/>
-      <c r="C63" s="163"/>
-      <c r="E63" s="96"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="159"/>
-      <c r="C64" s="163"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="166"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="167"/>
-      <c r="F65" s="96"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="167"/>
-      <c r="F66" s="96"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="167"/>
-      <c r="F67" s="96"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="167"/>
-      <c r="F68" s="96"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E69" s="167"/>
-      <c r="F69" s="96"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E70" s="167"/>
-      <c r="F70" s="96"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E71" s="167"/>
-      <c r="F71" s="96"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E72" s="167"/>
-      <c r="F72" s="96"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E73" s="167"/>
-      <c r="F73" s="96"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E74" s="167"/>
-      <c r="F74" s="96"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E75" s="167"/>
-      <c r="F75" s="96"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E76" s="167"/>
-      <c r="F76" s="96"/>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F77" s="166"/>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F78" s="166"/>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F79" s="166"/>
+      <c r="J75" s="203"/>
+      <c r="K75" s="204">
+        <f>K71+K73</f>
+        <v>65323.966999999975</v>
+      </c>
+      <c r="L75" s="204"/>
+    </row>
+    <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C76" s="152"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="155"/>
+      <c r="J76" s="156"/>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="157"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="158"/>
+      <c r="L77" s="158"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="159"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="96"/>
+      <c r="I78" s="157"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="158"/>
+      <c r="L78" s="158"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="133"/>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="159"/>
+      <c r="C79" s="163"/>
+      <c r="E79" s="96"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="133"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="159"/>
+      <c r="C80" s="163"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="164"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="159"/>
+      <c r="C81" s="163"/>
+      <c r="E81" s="96"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="159"/>
+      <c r="C82" s="163"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="166"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="167"/>
+      <c r="F83" s="96"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E84" s="167"/>
+      <c r="F84" s="96"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="167"/>
+      <c r="F85" s="96"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="167"/>
+      <c r="F86" s="96"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="167"/>
+      <c r="F87" s="96"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E88" s="167"/>
+      <c r="F88" s="96"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E89" s="167"/>
+      <c r="F89" s="96"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E90" s="167"/>
+      <c r="F90" s="96"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E91" s="167"/>
+      <c r="F91" s="96"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E92" s="167"/>
+      <c r="F92" s="96"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E93" s="167"/>
+      <c r="F93" s="96"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E94" s="167"/>
+      <c r="F94" s="96"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F95" s="166"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F96" s="166"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7841,13 +8694,116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>202</v>
+      </c>
+      <c r="F4" s="131">
+        <f>D4*E4</f>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5" s="131">
+        <f t="shared" ref="F5:F11" si="0">D5*E5</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="131">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="131">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="131">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="131">
+        <f>SUM(F4:F11)</f>
+        <v>115970</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7856,7 +8812,7 @@
   <dimension ref="C3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,18 +8822,18 @@
   <sheetData>
     <row r="3" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="242" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="241" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="180" t="s">
-        <v>32</v>
+      <c r="C6" s="243" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7907,99 +8863,99 @@
     <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="183" t="s">
+      <c r="C15" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="181">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="182"/>
+      <c r="D16" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="184">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="185"/>
-      <c r="D16" s="187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="185" t="s">
+      <c r="D17" s="183">
+        <v>-6299.83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="186">
-        <v>-6299.83</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="185" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="189">
+      <c r="D18" s="186">
         <v>-50</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C19" s="185" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="188">
+      <c r="C19" s="182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="185">
         <f>SUM(D15:D18)</f>
         <v>-1947.83</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="181">
+        <v>121</v>
+      </c>
+      <c r="F20" s="187"/>
+    </row>
+    <row r="21" spans="3:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="184">
-        <v>121</v>
-      </c>
-      <c r="F20" s="190"/>
-    </row>
-    <row r="21" spans="3:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="183" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="192">
+      <c r="D21" s="189">
         <f>D20-D19</f>
         <v>2068.83</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="187"/>
+    </row>
+    <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="190"/>
-    </row>
-    <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="232" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="233"/>
-      <c r="F22" s="191"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="188"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="234"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="191"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="188"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D24" s="182"/>
-      <c r="F24" s="190"/>
+      <c r="D24" s="179"/>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D25" s="182"/>
+      <c r="D25" s="179"/>
     </row>
     <row r="26" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D26" s="182"/>
+      <c r="D26" s="179"/>
     </row>
     <row r="27" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D27" s="182"/>
+      <c r="D27" s="179"/>
     </row>
     <row r="28" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D28" s="182"/>
+      <c r="D28" s="179"/>
     </row>
     <row r="29" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D29" s="182"/>
+      <c r="D29" s="179"/>
     </row>
     <row r="30" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D30" s="182"/>
+      <c r="D30" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="1">
